--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value909.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value909.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.742906188346112</v>
+        <v>1.106720805168152</v>
       </c>
       <c r="B1">
-        <v>1.863657506283364</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.945807482768815</v>
+        <v>2.476559162139893</v>
       </c>
       <c r="D1">
-        <v>2.537364442604389</v>
+        <v>1.365588188171387</v>
       </c>
       <c r="E1">
-        <v>3.025657469669111</v>
+        <v>0.9881521463394165</v>
       </c>
     </row>
   </sheetData>
